--- a/list_1.xlsx
+++ b/list_1.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3512,11 +3512,21 @@
       <c r="C118" t="n">
         <v>22730809</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>1807506</v>
+      </c>
+      <c r="E118" t="n">
+        <v>5919637922</v>
+      </c>
+      <c r="F118" t="n">
+        <v>176954837400</v>
+      </c>
+      <c r="G118" t="n">
+        <v>579532552563800</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.02999999932944775</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -3526,13 +3536,29 @@
         <v>98100</v>
       </c>
       <c r="C119" t="n">
-        <v>17555614</v>
+        <v>17589756</v>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>97500</v>
+      </c>
+      <c r="C120" t="n">
+        <v>22742094</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3545,7 +3571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6621,11 +6647,21 @@
       <c r="C118" t="n">
         <v>4541583</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>2016520</v>
+      </c>
+      <c r="E118" t="n">
+        <v>728002365</v>
+      </c>
+      <c r="F118" t="n">
+        <v>938690060000</v>
+      </c>
+      <c r="G118" t="n">
+        <v>338885100907500</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.2800000011920929</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6642,6 +6678,22 @@
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>479000</v>
+      </c>
+      <c r="C120" t="n">
+        <v>4123226</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6654,7 +6706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9730,11 +9782,21 @@
       <c r="C118" t="n">
         <v>946272</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>2432247</v>
+      </c>
+      <c r="E118" t="n">
+        <v>234000000</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1055595198000</v>
+      </c>
+      <c r="G118" t="n">
+        <v>101556000000000</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1.039999961853027</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -9744,13 +9806,29 @@
         <v>432500</v>
       </c>
       <c r="C119" t="n">
-        <v>368538</v>
+        <v>382756</v>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>437000</v>
+      </c>
+      <c r="C120" t="n">
+        <v>462927</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9763,7 +9841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12839,11 +12917,21 @@
       <c r="C118" t="n">
         <v>1150682</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>172243</v>
+      </c>
+      <c r="E118" t="n">
+        <v>70592343</v>
+      </c>
+      <c r="F118" t="n">
+        <v>58390377000</v>
+      </c>
+      <c r="G118" t="n">
+        <v>23930804277000</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.239999994635582</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -12860,6 +12948,22 @@
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>346000</v>
+      </c>
+      <c r="C120" t="n">
+        <v>357271</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12872,7 +12976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15948,11 +16052,21 @@
       <c r="C118" t="n">
         <v>4990047</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>3569247</v>
+      </c>
+      <c r="E118" t="n">
+        <v>97801344</v>
+      </c>
+      <c r="F118" t="n">
+        <v>574648767000</v>
+      </c>
+      <c r="G118" t="n">
+        <v>15746016384000</v>
+      </c>
+      <c r="H118" t="n">
+        <v>3.650000095367432</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -15962,13 +16076,29 @@
         <v>160300</v>
       </c>
       <c r="C119" t="n">
-        <v>1491696</v>
+        <v>1505696</v>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>159800</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1310912</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15981,7 +16111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19057,11 +19187,21 @@
       <c r="C118" t="n">
         <v>11077590</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>6600980</v>
+      </c>
+      <c r="E118" t="n">
+        <v>135776152</v>
+      </c>
+      <c r="F118" t="n">
+        <v>483851834000</v>
+      </c>
+      <c r="G118" t="n">
+        <v>9952391941600</v>
+      </c>
+      <c r="H118" t="n">
+        <v>4.860000133514404</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -19078,6 +19218,22 @@
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>75900</v>
+      </c>
+      <c r="C120" t="n">
+        <v>4655287</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19090,7 +19246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22166,11 +22322,21 @@
       <c r="C118" t="n">
         <v>556190</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>306229</v>
+      </c>
+      <c r="E118" t="n">
+        <v>162886387</v>
+      </c>
+      <c r="F118" t="n">
+        <v>25784481800</v>
+      </c>
+      <c r="G118" t="n">
+        <v>13715033785400</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.1899999976158142</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -22187,6 +22353,22 @@
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>89200</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1062670</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22199,7 +22381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25275,11 +25457,21 @@
       <c r="C118" t="n">
         <v>1800788</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>3213949</v>
+      </c>
+      <c r="E118" t="n">
+        <v>500000000</v>
+      </c>
+      <c r="F118" t="n">
+        <v>46184447130</v>
+      </c>
+      <c r="G118" t="n">
+        <v>7185000000000</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.6399999856948853</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -25297,6 +25489,22 @@
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
     </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>14090</v>
+      </c>
+      <c r="C120" t="n">
+        <v>3586653</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_1.xlsx
+++ b/list_1.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5566,11 +5566,21 @@
       <c r="C197" t="n">
         <v>18488581</v>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>1470311</v>
+      </c>
+      <c r="E197" t="n">
+        <v>5919637922</v>
+      </c>
+      <c r="F197" t="n">
+        <v>141885011500</v>
+      </c>
+      <c r="G197" t="n">
+        <v>571245059473000</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.01999999955296516</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -5580,13 +5590,29 @@
         <v>98800</v>
       </c>
       <c r="C198" t="n">
-        <v>18568841</v>
+        <v>18801925</v>
       </c>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B199" t="n">
+        <v>102000</v>
+      </c>
+      <c r="C199" t="n">
+        <v>22097588</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5599,7 +5625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10729,11 +10755,21 @@
       <c r="C197" t="n">
         <v>3583993</v>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>1942461</v>
+      </c>
+      <c r="E197" t="n">
+        <v>728002365</v>
+      </c>
+      <c r="F197" t="n">
+        <v>929467588500</v>
+      </c>
+      <c r="G197" t="n">
+        <v>348349131652500</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.2700000107288361</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -10743,13 +10779,29 @@
         <v>510000</v>
       </c>
       <c r="C198" t="n">
-        <v>4227217</v>
+        <v>4254202</v>
       </c>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B199" t="n">
+        <v>535000</v>
+      </c>
+      <c r="C199" t="n">
+        <v>3372136</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10762,7 +10814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15892,11 +15944,21 @@
       <c r="C197" t="n">
         <v>300756</v>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>2521478</v>
+      </c>
+      <c r="E197" t="n">
+        <v>234000000</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1128361405000</v>
+      </c>
+      <c r="G197" t="n">
+        <v>104715000000000</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1.080000042915344</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -15913,6 +15975,22 @@
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B199" t="n">
+        <v>495000</v>
+      </c>
+      <c r="C199" t="n">
+        <v>599572</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15925,7 +16003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21055,11 +21133,21 @@
       <c r="C197" t="n">
         <v>892900</v>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>153033</v>
+      </c>
+      <c r="E197" t="n">
+        <v>70592343</v>
+      </c>
+      <c r="F197" t="n">
+        <v>59606353500</v>
+      </c>
+      <c r="G197" t="n">
+        <v>27495717598500</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.2199999988079071</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -21069,13 +21157,29 @@
         <v>401000</v>
       </c>
       <c r="C198" t="n">
-        <v>793696</v>
+        <v>811185</v>
       </c>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B199" t="n">
+        <v>404000</v>
+      </c>
+      <c r="C199" t="n">
+        <v>447924</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21088,7 +21192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26218,11 +26322,21 @@
       <c r="C197" t="n">
         <v>650815</v>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>3594723</v>
+      </c>
+      <c r="E197" t="n">
+        <v>97801344</v>
+      </c>
+      <c r="F197" t="n">
+        <v>572998846200</v>
+      </c>
+      <c r="G197" t="n">
+        <v>15589534233600</v>
+      </c>
+      <c r="H197" t="n">
+        <v>3.680000066757202</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -26239,6 +26353,22 @@
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B199" t="n">
+        <v>172900</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1150272</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -26251,7 +26381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31381,11 +31511,21 @@
       <c r="C197" t="n">
         <v>2106961</v>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>6703624</v>
+      </c>
+      <c r="E197" t="n">
+        <v>135776152</v>
+      </c>
+      <c r="F197" t="n">
+        <v>546345356000</v>
+      </c>
+      <c r="G197" t="n">
+        <v>11065756388000</v>
+      </c>
+      <c r="H197" t="n">
+        <v>4.940000057220459</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -31395,13 +31535,29 @@
         <v>88300</v>
       </c>
       <c r="C198" t="n">
-        <v>2332887</v>
+        <v>2405485</v>
       </c>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B199" t="n">
+        <v>93800</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2455217</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -31414,7 +31570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36544,11 +36700,21 @@
       <c r="C197" t="n">
         <v>756369</v>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>322653</v>
+      </c>
+      <c r="E197" t="n">
+        <v>162886387</v>
+      </c>
+      <c r="F197" t="n">
+        <v>29103300600</v>
+      </c>
+      <c r="G197" t="n">
+        <v>14692352107400</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.2000000029802322</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -36565,6 +36731,22 @@
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B199" t="n">
+        <v>89000</v>
+      </c>
+      <c r="C199" t="n">
+        <v>579322</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -36577,7 +36759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41707,11 +41889,21 @@
       <c r="C197" t="n">
         <v>1914406</v>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>3735205</v>
+      </c>
+      <c r="E197" t="n">
+        <v>500000000</v>
+      </c>
+      <c r="F197" t="n">
+        <v>52853150750</v>
+      </c>
+      <c r="G197" t="n">
+        <v>7075000000000</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -41729,6 +41921,22 @@
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
     </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B199" t="n">
+        <v>14240</v>
+      </c>
+      <c r="C199" t="n">
+        <v>3134920</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_1.xlsx
+++ b/list_1.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5592,11 +5592,21 @@
       <c r="C198" t="n">
         <v>18801925</v>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>1307236</v>
+      </c>
+      <c r="E198" t="n">
+        <v>5919637922</v>
+      </c>
+      <c r="F198" t="n">
+        <v>129154916800</v>
+      </c>
+      <c r="G198" t="n">
+        <v>584860226693600</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.01999999955296516</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -5606,13 +5616,29 @@
         <v>102000</v>
       </c>
       <c r="C199" t="n">
-        <v>22097588</v>
+        <v>22169970</v>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B200" t="n">
+        <v>99500</v>
+      </c>
+      <c r="C200" t="n">
+        <v>19830309</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5625,7 +5651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10781,11 +10807,21 @@
       <c r="C198" t="n">
         <v>4254202</v>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>1750569</v>
+      </c>
+      <c r="E198" t="n">
+        <v>728002365</v>
+      </c>
+      <c r="F198" t="n">
+        <v>892790190000</v>
+      </c>
+      <c r="G198" t="n">
+        <v>371281206150000</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.239999994635582</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -10795,13 +10831,29 @@
         <v>535000</v>
       </c>
       <c r="C199" t="n">
-        <v>3372136</v>
+        <v>3381231</v>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B200" t="n">
+        <v>521000</v>
+      </c>
+      <c r="C200" t="n">
+        <v>5546461</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10814,7 +10866,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15970,11 +16022,21 @@
       <c r="C198" t="n">
         <v>976594</v>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>2565040</v>
+      </c>
+      <c r="E198" t="n">
+        <v>234000000</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1261999680000</v>
+      </c>
+      <c r="G198" t="n">
+        <v>115128000000000</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1.100000023841858</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -15991,6 +16053,22 @@
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B200" t="n">
+        <v>510000</v>
+      </c>
+      <c r="C200" t="n">
+        <v>553394</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16003,7 +16081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21159,11 +21237,21 @@
       <c r="C198" t="n">
         <v>811185</v>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>168775</v>
+      </c>
+      <c r="E198" t="n">
+        <v>70592343</v>
+      </c>
+      <c r="F198" t="n">
+        <v>67678775000</v>
+      </c>
+      <c r="G198" t="n">
+        <v>28307529543000</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.239999994635582</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -21180,6 +21268,22 @@
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B200" t="n">
+        <v>413500</v>
+      </c>
+      <c r="C200" t="n">
+        <v>482354</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21192,7 +21296,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26348,11 +26452,21 @@
       <c r="C198" t="n">
         <v>1653548</v>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>3435785</v>
+      </c>
+      <c r="E198" t="n">
+        <v>97801344</v>
+      </c>
+      <c r="F198" t="n">
+        <v>593016491000</v>
+      </c>
+      <c r="G198" t="n">
+        <v>16880511974400</v>
+      </c>
+      <c r="H198" t="n">
+        <v>3.509999990463257</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -26362,13 +26476,29 @@
         <v>172900</v>
       </c>
       <c r="C199" t="n">
-        <v>1150272</v>
+        <v>5785264</v>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B200" t="n">
+        <v>174100</v>
+      </c>
+      <c r="C200" t="n">
+        <v>838564</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -26381,7 +26511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31537,11 +31667,21 @@
       <c r="C198" t="n">
         <v>2405485</v>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>6669138</v>
+      </c>
+      <c r="E198" t="n">
+        <v>135776152</v>
+      </c>
+      <c r="F198" t="n">
+        <v>588884885400</v>
+      </c>
+      <c r="G198" t="n">
+        <v>11989034221600</v>
+      </c>
+      <c r="H198" t="n">
+        <v>4.909999847412109</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -31551,13 +31691,29 @@
         <v>93800</v>
       </c>
       <c r="C199" t="n">
-        <v>2455217</v>
+        <v>2529060</v>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B200" t="n">
+        <v>97200</v>
+      </c>
+      <c r="C200" t="n">
+        <v>3156699</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -31570,7 +31726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36726,11 +36882,21 @@
       <c r="C198" t="n">
         <v>1159776</v>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>332379</v>
+      </c>
+      <c r="E198" t="n">
+        <v>162886387</v>
+      </c>
+      <c r="F198" t="n">
+        <v>29249352000</v>
+      </c>
+      <c r="G198" t="n">
+        <v>14334002056000</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.2000000029802322</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -36747,6 +36913,22 @@
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B200" t="n">
+        <v>89100</v>
+      </c>
+      <c r="C200" t="n">
+        <v>460279</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -36759,7 +36941,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41915,11 +42097,21 @@
       <c r="C198" t="n">
         <v>5181544</v>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>5409810</v>
+      </c>
+      <c r="E198" t="n">
+        <v>500000000</v>
+      </c>
+      <c r="F198" t="n">
+        <v>74493083700</v>
+      </c>
+      <c r="G198" t="n">
+        <v>6885000000000</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1.080000042915344</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -41937,6 +42129,22 @@
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
     </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B200" t="n">
+        <v>14310</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2058945</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_1.xlsx
+++ b/list_1.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5618,11 +5618,21 @@
       <c r="C199" t="n">
         <v>22169970</v>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>1211694</v>
+      </c>
+      <c r="E199" t="n">
+        <v>5919637922</v>
+      </c>
+      <c r="F199" t="n">
+        <v>123592788000</v>
+      </c>
+      <c r="G199" t="n">
+        <v>603803068044000</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.01999999955296516</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -5632,13 +5642,29 @@
         <v>99500</v>
       </c>
       <c r="C200" t="n">
-        <v>19830309</v>
+        <v>20002282</v>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B201" t="n">
+        <v>100500</v>
+      </c>
+      <c r="C201" t="n">
+        <v>20646412</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5651,7 +5677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10833,11 +10859,21 @@
       <c r="C199" t="n">
         <v>3381231</v>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>1826702</v>
+      </c>
+      <c r="E199" t="n">
+        <v>728002365</v>
+      </c>
+      <c r="F199" t="n">
+        <v>977285570000</v>
+      </c>
+      <c r="G199" t="n">
+        <v>389481265275000</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -10847,13 +10883,29 @@
         <v>521000</v>
       </c>
       <c r="C200" t="n">
-        <v>5546461</v>
+        <v>5659008</v>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B201" t="n">
+        <v>558000</v>
+      </c>
+      <c r="C201" t="n">
+        <v>4705175</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10866,7 +10918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16048,11 +16100,21 @@
       <c r="C199" t="n">
         <v>599572</v>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>2529972</v>
+      </c>
+      <c r="E199" t="n">
+        <v>234000000</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1252336140000</v>
+      </c>
+      <c r="G199" t="n">
+        <v>115830000000000</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1.080000042915344</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -16062,13 +16124,29 @@
         <v>510000</v>
       </c>
       <c r="C200" t="n">
-        <v>553394</v>
+        <v>560608</v>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B201" t="n">
+        <v>514000</v>
+      </c>
+      <c r="C201" t="n">
+        <v>439194</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16081,7 +16159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21263,11 +21341,21 @@
       <c r="C199" t="n">
         <v>447924</v>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>172223</v>
+      </c>
+      <c r="E199" t="n">
+        <v>70592343</v>
+      </c>
+      <c r="F199" t="n">
+        <v>69578092000</v>
+      </c>
+      <c r="G199" t="n">
+        <v>28519306572000</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.239999994635582</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -21277,13 +21365,29 @@
         <v>413500</v>
       </c>
       <c r="C200" t="n">
-        <v>482354</v>
+        <v>503165</v>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B201" t="n">
+        <v>417000</v>
+      </c>
+      <c r="C201" t="n">
+        <v>432477</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21296,7 +21400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26478,11 +26582,21 @@
       <c r="C199" t="n">
         <v>5785264</v>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>3459626</v>
+      </c>
+      <c r="E199" t="n">
+        <v>97801344</v>
+      </c>
+      <c r="F199" t="n">
+        <v>598169335400</v>
+      </c>
+      <c r="G199" t="n">
+        <v>16909852377600</v>
+      </c>
+      <c r="H199" t="n">
+        <v>3.539999961853027</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -26499,6 +26613,22 @@
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B201" t="n">
+        <v>171700</v>
+      </c>
+      <c r="C201" t="n">
+        <v>527687</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -26511,7 +26641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31693,11 +31823,21 @@
       <c r="C199" t="n">
         <v>2529060</v>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>6710220</v>
+      </c>
+      <c r="E199" t="n">
+        <v>135776152</v>
+      </c>
+      <c r="F199" t="n">
+        <v>629418636000</v>
+      </c>
+      <c r="G199" t="n">
+        <v>12735803057600</v>
+      </c>
+      <c r="H199" t="n">
+        <v>4.940000057220459</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -31707,13 +31847,29 @@
         <v>97200</v>
       </c>
       <c r="C200" t="n">
-        <v>3156699</v>
+        <v>3167748</v>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B201" t="n">
+        <v>93100</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1769813</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -31726,7 +31882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36908,11 +37064,21 @@
       <c r="C199" t="n">
         <v>579322</v>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>319332</v>
+      </c>
+      <c r="E199" t="n">
+        <v>162886387</v>
+      </c>
+      <c r="F199" t="n">
+        <v>28420548000</v>
+      </c>
+      <c r="G199" t="n">
+        <v>14496888443000</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.2000000029802322</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -36929,6 +37095,22 @@
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B201" t="n">
+        <v>88800</v>
+      </c>
+      <c r="C201" t="n">
+        <v>705875</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -36941,7 +37123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42123,11 +42305,21 @@
       <c r="C199" t="n">
         <v>3134920</v>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>5589386</v>
+      </c>
+      <c r="E199" t="n">
+        <v>500000000</v>
+      </c>
+      <c r="F199" t="n">
+        <v>79592856640</v>
+      </c>
+      <c r="G199" t="n">
+        <v>7120000000000</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1.120000004768372</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -42145,6 +42337,22 @@
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
     </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B201" t="n">
+        <v>14500</v>
+      </c>
+      <c r="C201" t="n">
+        <v>3684225</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
